--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.15_Student_Right_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.15_Student_Right_Q_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4576585F-9579-41E3-84CF-F0500F9D21E2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807662C3-2918-42B5-8B96-3905EC1FBE5F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{8573AEC3-BED0-42B7-B402-28B1E164A1DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial Balance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -286,18 +286,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +325,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +672,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,190 +681,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="A1:H1"/>
